--- a/similarities/split_global/harmonic_similarity_timestamps_34.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:08.660000', '0:01:23.380000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.460000', '0:00:15.080000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=68.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000'), ('0:01:39.600000', '0:01:51.620000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_50</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:hdim7', 'C:7', 'F:min7', 'D:hdim7']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:hdim7', 'G:7', 'C:min7', 'A:hdim7']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:21.740000', '0:00:28.210000')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:18.770000', '0:01:24.380000')]</t>
+          <t>('0:00:28.450816', '0:00:43.926916')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-50#t=21.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=78.77']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:02:37.019000', '0:02:40.636000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988'), ('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:07.980000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:14.620000', '0:00:22.040000'), ('0:00:25.800000', '0:00:31.820000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['A', 'E', 'B:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:01:03.100000', '0:01:06.260000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+          <t>('0:01:44.354195', '0:01:53.665396')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:sus4', 'G', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:sus4', 'F#', 'B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:12.135000', '0:00:17.431000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:04.406553', '0:00:06.020340')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=12.135</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-22#t=4.406553</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['E', 'B', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['A', 'E', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:28.278000', '0:00:54.729000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:05.746892')]</t>
+          <t>('0:00:47.015260', '0:01:08.818798')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=28.278</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=47.01526</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+          <t>('0:00:01.640000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:08.220000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=1.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:42.340000', '0:00:45.160000')]</t>
+          <t>('0:00:38.514896', '0:00:45.713082')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.253000', '0:00:22.735000')]</t>
+          <t>('0:03:20.520000', '0:03:23.860000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=38.514896</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.253']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+          <t>('0:00:57.777619', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000'), ('0:00:21.940000', '0:00:27.520000'), ('0:00:07.220000', '0:00:10.760000')]</t>
+          <t>('0:00:33.100000', '0:00:43.990000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:00:42.440000', '0:00:44.360000'), ('0:01:30.600000', '0:01:41.180000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=90.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
